--- a/PAM-Paper-Results/Misc/LIST_SUBMARINE_CABLE_OPERATORS_AND_ASES.xlsx
+++ b/PAM-Paper-Results/Misc/LIST_SUBMARINE_CABLE_OPERATORS_AND_ASES.xlsx
@@ -772,6 +772,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G53" totalsRowCount="1">
   <autoFilter ref="A1:G52"/>
+  <sortState ref="A2:G52">
+    <sortCondition ref="C1:C52"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Country Code"/>
     <tableColumn id="2" name="Country Name"/>
@@ -1052,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,1154 +1116,1154 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
-        <v>0.23125000000000001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
+      <c r="E3" s="6">
+        <v>0.74941000000000002</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>0.12117</v>
+        <v>0.38661000000000001</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.74941000000000002</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>0.44418000000000002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>0.38661000000000001</v>
+        <v>0.73014000000000001</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
+      <c r="G6" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E7">
-        <v>0.44418000000000002</v>
+        <v>0.26491999999999999</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>0.73014000000000001</v>
+        <v>0.33798</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>143</v>
+      <c r="G8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>0.26491999999999999</v>
+        <v>0.96374000000000004</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="E10">
-        <v>0.33798</v>
+        <v>0.43880000000000002</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="G10" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11">
+        <v>0.35005999999999998</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="10">
-        <v>6.2019999999999999E-2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0.96374000000000004</v>
+        <v>0.26271</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>95</v>
+      <c r="G12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E13">
-        <v>0.12095</v>
+        <v>0.23541000000000001</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>0.43880000000000002</v>
+        <v>0.38482</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>0.35005999999999998</v>
+        <v>0.28616000000000003</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>0.26271</v>
+        <v>0.51842999999999995</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
-        <v>7</v>
+      <c r="G16" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="E17">
-        <v>4.1119999999999997E-2</v>
+        <v>0.56794999999999995</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="E18">
-        <v>0.23541000000000001</v>
+        <v>0.32529000000000002</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>97</v>
+      <c r="G18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E19">
-        <v>1.04E-2</v>
+        <v>0.95908000000000004</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="E20">
-        <v>0.38482</v>
+        <v>0.31618000000000002</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="E21">
-        <v>0.11672</v>
+        <v>0.51309000000000005</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" t="s">
-        <v>23</v>
+      <c r="G21" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E22">
-        <v>0.28616000000000003</v>
+        <v>0.43242000000000003</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
-        <v>167</v>
+      <c r="G22" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="E23">
-        <v>8.7400000000000005E-2</v>
+        <v>0.26090000000000002</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="E24">
-        <v>0.51842999999999995</v>
+        <v>0.26901000000000003</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>0.56794999999999995</v>
+        <v>0.35076000000000002</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>0.32529000000000002</v>
+        <v>0.84711999999999998</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
-        <v>119</v>
+      <c r="G26" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>0.95908000000000004</v>
+        <v>0.66439000000000004</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="C28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="E28">
-        <v>0.18131</v>
+        <v>0.79888000000000003</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" t="s">
-        <v>106</v>
+      <c r="G28" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="E29">
-        <v>0.13976</v>
+        <v>0.78818999999999995</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="E30">
-        <v>0.31618000000000002</v>
+        <v>0.25557000000000002</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="E31">
-        <v>3.6119999999999999E-2</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
-      <c r="G31" t="s">
-        <v>23</v>
+      <c r="G31" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E32">
-        <v>0.51309000000000005</v>
+        <v>0.45854</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="C33" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="E33">
-        <v>0.20104</v>
+        <v>0.34244999999999998</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>0.43242000000000003</v>
+        <v>0.56813000000000002</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>107</v>
+      <c r="G34" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E35">
-        <v>0.26090000000000002</v>
+        <v>0.16952999999999999</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="E36">
-        <v>0.26901000000000003</v>
+        <v>0.32474999999999998</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="E37">
-        <v>0.35076000000000002</v>
+        <v>0.48876999999999998</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
       <c r="E38">
-        <v>0.84711999999999998</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>110</v>
+      <c r="G38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>0.66439000000000004</v>
+        <v>0.13976</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
       </c>
       <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>0.20104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
         <v>188</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>0.23952999999999999</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41">
-        <v>0.79888000000000003</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C42" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="E42">
-        <v>0.78818999999999995</v>
+        <v>0.15822</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C43" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>0.25557000000000002</v>
+        <v>0.12117</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C44" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="E44">
-        <v>0.15822</v>
+        <v>0.18131</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>193</v>
+      <c r="G44" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C45" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E45">
-        <v>0.54400000000000004</v>
+        <v>0.16258</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46">
-        <v>0.45854</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="9">
+        <v>4</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="10">
+        <v>6.2019999999999999E-2</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="C47" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="E47">
-        <v>0.34244999999999998</v>
+        <v>0.12095</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C48" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>0.16258</v>
+        <v>0.11672</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>169</v>
+      <c r="G48" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="C49" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>0.56813000000000002</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="C50" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E50">
-        <v>0.16952999999999999</v>
+        <v>4.1119999999999997E-2</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C51" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
       </c>
       <c r="E51">
-        <v>0.32474999999999998</v>
+        <v>3.6119999999999999E-2</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="E52">
-        <v>0.48876999999999998</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -2307,8 +2310,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G34" r:id="rId1" location="/submarine-cable/pan-american-pan-am"/>
-    <hyperlink ref="G47" r:id="rId2" display="https://www.boi.go.th/upload/content/tot_5d254fe992f21.pdf"/>
+    <hyperlink ref="G22" r:id="rId1" location="/submarine-cable/pan-american-pan-am"/>
+    <hyperlink ref="G33" r:id="rId2" display="https://www.boi.go.th/upload/content/tot_5d254fe992f21.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/PAM-Paper-Results/Misc/LIST_SUBMARINE_CABLE_OPERATORS_AND_ASES.xlsx
+++ b/PAM-Paper-Results/Misc/LIST_SUBMARINE_CABLE_OPERATORS_AND_ASES.xlsx
@@ -332,22 +332,13 @@
     <t>19863-Guyana Telephone &amp; Telegraph Co.</t>
   </si>
   <si>
-    <t>Guyana (8)</t>
-  </si>
-  <si>
     <t>Fibralink</t>
   </si>
   <si>
-    <t>Honduras (3)</t>
-  </si>
-  <si>
     <t>Colombia-Florida Subsea Fiber (CFX-1)</t>
   </si>
   <si>
     <t>Taba-Aqaba (sister state-owned company National Electric Power Company of Jordan)</t>
-  </si>
-  <si>
-    <t>Morocco (2)</t>
   </si>
   <si>
     <t>SeaMeWe-3</t>
@@ -475,24 +466,12 @@
     <t>El Salvador is not landlocked but it has no landing stations according to Infrapedia and Telegeography</t>
   </si>
   <si>
-    <t>Ecuador (4)</t>
-  </si>
-  <si>
-    <t>Bangladesh (3)</t>
-  </si>
-  <si>
-    <t>Bahamas (2)</t>
-  </si>
-  <si>
     <t>Suriname-Guyana Submarine Cable System (SG-SCS)</t>
   </si>
   <si>
     <t>Pan American (PAN-AM)</t>
   </si>
   <si>
-    <t>Nicaragua (9)</t>
-  </si>
-  <si>
     <t>8697-Jordan Telecommunications Company</t>
   </si>
   <si>
@@ -547,18 +526,9 @@
     <t>7004-CTC Transmisiones Regionales S.A.</t>
   </si>
   <si>
-    <t>Malta (3)</t>
-  </si>
-  <si>
-    <t>Guatemala (6)</t>
-  </si>
-  <si>
     <t>South America-1 (SAm-1) - Telefonica through Telxius</t>
   </si>
   <si>
-    <t>Congo DRC (4)</t>
-  </si>
-  <si>
     <t>30844-Liquid Telecommunications Ltd</t>
   </si>
   <si>
@@ -611,6 +581,36 @@
   </si>
   <si>
     <t xml:space="preserve">Top AS </t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Congo DRC</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Guyana</t>
   </si>
 </sst>
 </file>
@@ -713,6 +713,26 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF052743"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -795,26 +815,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF052743"/>
-        <name val="Helvetica"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -829,20 +829,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F53" totalsRowCount="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F53" totalsRowCount="1" dataDxfId="2">
   <autoFilter ref="A1:F52"/>
   <sortState ref="A2:G52">
     <sortCondition ref="C1:C52"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Country Code" dataDxfId="6"/>
-    <tableColumn id="2" name="Country Name" dataDxfId="5"/>
-    <tableColumn id="3" name="CTI Rank" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="8">
+    <tableColumn id="1" name="Country Code" dataDxfId="8"/>
+    <tableColumn id="2" name="Country Name" dataDxfId="7"/>
+    <tableColumn id="3" name="CTI Rank" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
       <totalsRowFormula>AVERAGE(C2:C52)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Top AS " dataDxfId="3"/>
-    <tableColumn id="5" name="Top AS CTI" dataDxfId="2"/>
-    <tableColumn id="7" name="Submarine Cable(s)" dataDxfId="1" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="Top AS " dataDxfId="5"/>
+    <tableColumn id="5" name="Top AS CTI" dataDxfId="4"/>
+    <tableColumn id="7" name="Submarine Cable(s)" dataDxfId="3" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0.74941000000000002</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1229,10 +1229,10 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1244,27 +1244,27 @@
         <v>0.73014000000000001</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E7" s="5">
         <v>0.26491999999999999</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1309,42 +1309,42 @@
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5">
         <v>0.43880000000000002</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" s="5">
         <v>0.35005999999999998</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
         <v>0.38482</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>0.28616000000000003</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>0.51842999999999995</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1458,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E17" s="5">
         <v>0.56794999999999995</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1472,19 +1472,19 @@
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E18" s="5">
         <v>0.32529000000000002</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1498,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E19" s="5">
         <v>0.95908000000000004</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1518,13 +1518,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E20" s="5">
         <v>0.31618000000000002</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1538,13 +1538,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E21" s="5">
         <v>0.51309000000000005</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
         <v>0.43242000000000003</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1578,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E23" s="5">
         <v>0.26090000000000002</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1598,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E24" s="5">
         <v>0.26901000000000003</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>0.35076000000000002</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>0.84711999999999998</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1664,7 +1664,7 @@
         <v>0.66439000000000004</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="54" x14ac:dyDescent="0.2">
@@ -1678,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E28" s="5">
         <v>0.79888000000000003</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1698,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E29" s="5">
         <v>0.78818999999999995</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1712,19 +1712,19 @@
         <v>71</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E30" s="5">
         <v>0.25557000000000002</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1738,13 +1738,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E31" s="5">
         <v>0.54400000000000004</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1758,13 +1758,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E32" s="5">
         <v>0.45854</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1778,13 +1778,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E33" s="5">
         <v>0.34244999999999998</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1804,27 +1804,27 @@
         <v>0.56813000000000002</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E35" s="5">
         <v>0.16952999999999999</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1858,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E37" s="5">
         <v>0.48876999999999998</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1872,7 +1872,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
@@ -1904,15 +1904,15 @@
         <v>0.13976</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -1924,7 +1924,7 @@
         <v>0.20104</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1938,33 +1938,33 @@
         <v>2</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E41" s="5">
         <v>0.23952999999999999</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C42" s="6">
         <v>2</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E42" s="5">
         <v>0.15822</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1972,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C43" s="6">
         <v>3</v>
@@ -1992,7 +1992,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C44" s="6">
         <v>3</v>
@@ -2004,7 +2004,7 @@
         <v>0.18131</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2018,13 +2018,13 @@
         <v>3</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E45" s="5">
         <v>0.16258</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2032,13 +2032,13 @@
         <v>28</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C46" s="6">
         <v>4</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E46" s="5">
         <v>6.2019999999999999E-2</v>
@@ -2052,7 +2052,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C47" s="6">
         <v>4</v>
@@ -2064,7 +2064,7 @@
         <v>0.12095</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2072,7 +2072,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="C48" s="6">
         <v>4</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C49" s="6">
         <v>4</v>
@@ -2104,7 +2104,7 @@
         <v>8.7400000000000005E-2</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2112,7 +2112,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C50" s="6">
         <v>6</v>
@@ -2124,7 +2124,7 @@
         <v>4.1119999999999997E-2</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2132,7 +2132,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C51" s="6">
         <v>10</v>
@@ -2152,7 +2152,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="C52" s="6">
         <v>12</v>
@@ -2164,7 +2164,7 @@
         <v>1.04E-2</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2176,37 +2176,37 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
